--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.72040518388844</v>
+        <v>12.47636466666667</v>
       </c>
       <c r="H2">
-        <v>5.72040518388844</v>
+        <v>37.429094</v>
       </c>
       <c r="I2">
-        <v>0.007461600504690534</v>
+        <v>0.01574043280769249</v>
       </c>
       <c r="J2">
-        <v>0.007461600504690534</v>
+        <v>0.0157404328076925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.374966529672805</v>
+        <v>0.3924583333333334</v>
       </c>
       <c r="N2">
-        <v>0.374966529672805</v>
+        <v>1.177375</v>
       </c>
       <c r="O2">
-        <v>0.2088802554175519</v>
+        <v>0.1759822608984195</v>
       </c>
       <c r="P2">
-        <v>0.2088802554175519</v>
+        <v>0.1759822608984194</v>
       </c>
       <c r="Q2">
-        <v>2.144960480124972</v>
+        <v>4.896453283138889</v>
       </c>
       <c r="R2">
-        <v>2.144960480124972</v>
+        <v>44.06807954825</v>
       </c>
       <c r="S2">
-        <v>0.001558581019243493</v>
+        <v>0.002770036953017382</v>
       </c>
       <c r="T2">
-        <v>0.001558581019243493</v>
+        <v>0.002770036953017382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.72040518388844</v>
+        <v>12.47636466666667</v>
       </c>
       <c r="H3">
-        <v>5.72040518388844</v>
+        <v>37.429094</v>
       </c>
       <c r="I3">
-        <v>0.007461600504690534</v>
+        <v>0.01574043280769249</v>
       </c>
       <c r="J3">
-        <v>0.007461600504690534</v>
+        <v>0.0157404328076925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.42016019938661</v>
+        <v>1.565072666666667</v>
       </c>
       <c r="N3">
-        <v>1.42016019938661</v>
+        <v>4.695218000000001</v>
       </c>
       <c r="O3">
-        <v>0.7911197445824482</v>
+        <v>0.7017943128153351</v>
       </c>
       <c r="P3">
-        <v>0.7911197445824482</v>
+        <v>0.7017943128153351</v>
       </c>
       <c r="Q3">
-        <v>8.123891766523204</v>
+        <v>19.52641731916578</v>
       </c>
       <c r="R3">
-        <v>8.123891766523204</v>
+        <v>175.737755872492</v>
       </c>
       <c r="S3">
-        <v>0.005903019485447042</v>
+        <v>0.01104654622569051</v>
       </c>
       <c r="T3">
-        <v>0.005903019485447042</v>
+        <v>0.01104654622569051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>533.656917427126</v>
+        <v>12.47636466666667</v>
       </c>
       <c r="H4">
-        <v>533.656917427126</v>
+        <v>37.429094</v>
       </c>
       <c r="I4">
-        <v>0.6960931256444883</v>
+        <v>0.01574043280769249</v>
       </c>
       <c r="J4">
-        <v>0.6960931256444883</v>
+        <v>0.0157404328076925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.374966529672805</v>
+        <v>0.2725706666666667</v>
       </c>
       <c r="N4">
-        <v>0.374966529672805</v>
+        <v>0.817712</v>
       </c>
       <c r="O4">
-        <v>0.2088802554175519</v>
+        <v>0.1222234262862456</v>
       </c>
       <c r="P4">
-        <v>0.2088802554175519</v>
+        <v>0.1222234262862455</v>
       </c>
       <c r="Q4">
-        <v>200.1034823635361</v>
+        <v>3.400691034769778</v>
       </c>
       <c r="R4">
-        <v>200.1034823635361</v>
+        <v>30.606219312928</v>
       </c>
       <c r="S4">
-        <v>0.1454001098790227</v>
+        <v>0.001923849628984605</v>
       </c>
       <c r="T4">
-        <v>0.1454001098790227</v>
+        <v>0.001923849628984605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>533.656917427126</v>
+        <v>536.4207763333334</v>
       </c>
       <c r="H5">
-        <v>533.656917427126</v>
+        <v>1609.262329</v>
       </c>
       <c r="I5">
-        <v>0.6960931256444883</v>
+        <v>0.676759249357605</v>
       </c>
       <c r="J5">
-        <v>0.6960931256444883</v>
+        <v>0.676759249357605</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.42016019938661</v>
+        <v>0.3924583333333334</v>
       </c>
       <c r="N5">
-        <v>1.42016019938661</v>
+        <v>1.177375</v>
       </c>
       <c r="O5">
-        <v>0.7911197445824482</v>
+        <v>0.1759822608984195</v>
       </c>
       <c r="P5">
-        <v>0.7911197445824482</v>
+        <v>0.1759822608984194</v>
       </c>
       <c r="Q5">
-        <v>757.8783142573509</v>
+        <v>210.5228038451528</v>
       </c>
       <c r="R5">
-        <v>757.8783142573509</v>
+        <v>1894.705234606375</v>
       </c>
       <c r="S5">
-        <v>0.5506930157654656</v>
+        <v>0.1190976227858686</v>
       </c>
       <c r="T5">
-        <v>0.5506930157654656</v>
+        <v>0.1190976227858685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.594124032635</v>
+        <v>536.4207763333334</v>
       </c>
       <c r="H6">
-        <v>19.594124032635</v>
+        <v>1609.262329</v>
       </c>
       <c r="I6">
-        <v>0.02555824650020622</v>
+        <v>0.676759249357605</v>
       </c>
       <c r="J6">
-        <v>0.02555824650020622</v>
+        <v>0.676759249357605</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.374966529672805</v>
+        <v>1.565072666666667</v>
       </c>
       <c r="N6">
-        <v>0.374966529672805</v>
+        <v>4.695218000000001</v>
       </c>
       <c r="O6">
-        <v>0.2088802554175519</v>
+        <v>0.7017943128153351</v>
       </c>
       <c r="P6">
-        <v>0.2088802554175519</v>
+        <v>0.7017943128153351</v>
       </c>
       <c r="Q6">
-        <v>7.347140690495654</v>
+        <v>839.5374948714137</v>
       </c>
       <c r="R6">
-        <v>7.347140690495654</v>
+        <v>7555.837453842723</v>
       </c>
       <c r="S6">
-        <v>0.005338613056987828</v>
+        <v>0.4749457923443424</v>
       </c>
       <c r="T6">
-        <v>0.005338613056987828</v>
+        <v>0.4749457923443424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.594124032635</v>
+        <v>536.4207763333334</v>
       </c>
       <c r="H7">
-        <v>19.594124032635</v>
+        <v>1609.262329</v>
       </c>
       <c r="I7">
-        <v>0.02555824650020622</v>
+        <v>0.676759249357605</v>
       </c>
       <c r="J7">
-        <v>0.02555824650020622</v>
+        <v>0.676759249357605</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.42016019938661</v>
+        <v>0.2725706666666667</v>
       </c>
       <c r="N7">
-        <v>1.42016019938661</v>
+        <v>0.817712</v>
       </c>
       <c r="O7">
-        <v>0.7911197445824482</v>
+        <v>0.1222234262862456</v>
       </c>
       <c r="P7">
-        <v>0.7911197445824482</v>
+        <v>0.1222234262862455</v>
       </c>
       <c r="Q7">
-        <v>27.82679509299289</v>
+        <v>146.2125686190276</v>
       </c>
       <c r="R7">
-        <v>27.82679509299289</v>
+        <v>1315.913117571248</v>
       </c>
       <c r="S7">
-        <v>0.0202196334432184</v>
+        <v>0.08271583422739411</v>
       </c>
       <c r="T7">
-        <v>0.0202196334432184</v>
+        <v>0.08271583422739409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.795338707476</v>
+        <v>26.33865233333333</v>
       </c>
       <c r="H8">
-        <v>12.795338707476</v>
+        <v>79.015957</v>
       </c>
       <c r="I8">
-        <v>0.01669002503988556</v>
+        <v>0.03322937397026012</v>
       </c>
       <c r="J8">
-        <v>0.01669002503988556</v>
+        <v>0.03322937397026013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.374966529672805</v>
+        <v>0.3924583333333334</v>
       </c>
       <c r="N8">
-        <v>0.374966529672805</v>
+        <v>1.177375</v>
       </c>
       <c r="O8">
-        <v>0.2088802554175519</v>
+        <v>0.1759822608984195</v>
       </c>
       <c r="P8">
-        <v>0.2088802554175519</v>
+        <v>0.1759822608984194</v>
       </c>
       <c r="Q8">
-        <v>4.79782375113039</v>
+        <v>10.33682359698611</v>
       </c>
       <c r="R8">
-        <v>4.79782375113039</v>
+        <v>93.03141237287501</v>
       </c>
       <c r="S8">
-        <v>0.003486216693256633</v>
+        <v>0.005847780359525465</v>
       </c>
       <c r="T8">
-        <v>0.003486216693256633</v>
+        <v>0.005847780359525465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,119 +971,119 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.795338707476</v>
+        <v>26.33865233333333</v>
       </c>
       <c r="H9">
-        <v>12.795338707476</v>
+        <v>79.015957</v>
       </c>
       <c r="I9">
-        <v>0.01669002503988556</v>
+        <v>0.03322937397026012</v>
       </c>
       <c r="J9">
-        <v>0.01669002503988556</v>
+        <v>0.03322937397026013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.42016019938661</v>
+        <v>1.565072666666667</v>
       </c>
       <c r="N9">
-        <v>1.42016019938661</v>
+        <v>4.695218000000001</v>
       </c>
       <c r="O9">
-        <v>0.7911197445824482</v>
+        <v>0.7017943128153351</v>
       </c>
       <c r="P9">
-        <v>0.7911197445824482</v>
+        <v>0.7017943128153351</v>
       </c>
       <c r="Q9">
-        <v>18.17143077002833</v>
+        <v>41.22190484373623</v>
       </c>
       <c r="R9">
-        <v>18.17143077002833</v>
+        <v>370.997143593626</v>
       </c>
       <c r="S9">
-        <v>0.01320380834662893</v>
+        <v>0.02332018567074249</v>
       </c>
       <c r="T9">
-        <v>0.01320380834662893</v>
+        <v>0.02332018567074249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>153.534837693012</v>
+        <v>26.33865233333333</v>
       </c>
       <c r="H10">
-        <v>153.534837693012</v>
+        <v>79.015957</v>
       </c>
       <c r="I10">
-        <v>0.2002682651998834</v>
+        <v>0.03322937397026012</v>
       </c>
       <c r="J10">
-        <v>0.2002682651998834</v>
+        <v>0.03322937397026013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.374966529672805</v>
+        <v>0.2725706666666667</v>
       </c>
       <c r="N10">
-        <v>0.374966529672805</v>
+        <v>0.817712</v>
       </c>
       <c r="O10">
-        <v>0.2088802554175519</v>
+        <v>0.1222234262862456</v>
       </c>
       <c r="P10">
-        <v>0.2088802554175519</v>
+        <v>0.1222234262862455</v>
       </c>
       <c r="Q10">
-        <v>57.57042527362609</v>
+        <v>7.179144025598222</v>
       </c>
       <c r="R10">
-        <v>57.57042527362609</v>
+        <v>64.612296230384</v>
       </c>
       <c r="S10">
-        <v>0.04183208638698165</v>
+        <v>0.004061407939992175</v>
       </c>
       <c r="T10">
-        <v>0.04183208638698165</v>
+        <v>0.004061407939992175</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>153.534837693012</v>
+        <v>14.90392133333333</v>
       </c>
       <c r="H11">
-        <v>153.534837693012</v>
+        <v>44.711764</v>
       </c>
       <c r="I11">
-        <v>0.2002682651998834</v>
+        <v>0.01880308716410299</v>
       </c>
       <c r="J11">
-        <v>0.2002682651998834</v>
+        <v>0.01880308716410299</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.42016019938661</v>
+        <v>0.3924583333333334</v>
       </c>
       <c r="N11">
-        <v>1.42016019938661</v>
+        <v>1.177375</v>
       </c>
       <c r="O11">
-        <v>0.7911197445824482</v>
+        <v>0.1759822608984195</v>
       </c>
       <c r="P11">
-        <v>0.7911197445824482</v>
+        <v>0.1759822608984194</v>
       </c>
       <c r="Q11">
-        <v>218.0440657108987</v>
+        <v>5.849168126611112</v>
       </c>
       <c r="R11">
-        <v>218.0440657108987</v>
+        <v>52.6425131395</v>
       </c>
       <c r="S11">
-        <v>0.1584361788129017</v>
+        <v>0.003309009791008895</v>
       </c>
       <c r="T11">
-        <v>0.1584361788129017</v>
+        <v>0.003309009791008894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,489 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.3442433879317</v>
+        <v>14.90392133333333</v>
       </c>
       <c r="H12">
-        <v>41.3442433879317</v>
+        <v>44.711764</v>
       </c>
       <c r="I12">
-        <v>0.05392873711084584</v>
+        <v>0.01880308716410299</v>
       </c>
       <c r="J12">
-        <v>0.05392873711084584</v>
+        <v>0.01880308716410299</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.374966529672805</v>
+        <v>1.565072666666667</v>
       </c>
       <c r="N12">
-        <v>0.374966529672805</v>
+        <v>4.695218000000001</v>
       </c>
       <c r="O12">
-        <v>0.2088802554175519</v>
+        <v>0.7017943128153351</v>
       </c>
       <c r="P12">
-        <v>0.2088802554175519</v>
+        <v>0.7017943128153351</v>
       </c>
       <c r="Q12">
-        <v>15.50270746512056</v>
+        <v>23.32571990495023</v>
       </c>
       <c r="R12">
-        <v>15.50270746512056</v>
+        <v>209.931479144552</v>
       </c>
       <c r="S12">
-        <v>0.01126464838205949</v>
+        <v>0.01319589963513851</v>
       </c>
       <c r="T12">
-        <v>0.01126464838205949</v>
+        <v>0.01319589963513851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.90392133333333</v>
+      </c>
+      <c r="H13">
+        <v>44.711764</v>
+      </c>
+      <c r="I13">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="J13">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2725706666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.817712</v>
+      </c>
+      <c r="O13">
+        <v>0.1222234262862456</v>
+      </c>
+      <c r="P13">
+        <v>0.1222234262862455</v>
+      </c>
+      <c r="Q13">
+        <v>4.062371773774223</v>
+      </c>
+      <c r="R13">
+        <v>36.561345963968</v>
+      </c>
+      <c r="S13">
+        <v>0.002298177737955592</v>
+      </c>
+      <c r="T13">
+        <v>0.002298177737955591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>159.9495013333334</v>
+      </c>
+      <c r="H14">
+        <v>479.848504</v>
+      </c>
+      <c r="I14">
+        <v>0.2017955106015594</v>
+      </c>
+      <c r="J14">
+        <v>0.2017955106015595</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3924583333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.177375</v>
+      </c>
+      <c r="O14">
+        <v>0.1759822608984195</v>
+      </c>
+      <c r="P14">
+        <v>0.1759822608984194</v>
+      </c>
+      <c r="Q14">
+        <v>62.77351471077779</v>
+      </c>
+      <c r="R14">
+        <v>564.9616323970001</v>
+      </c>
+      <c r="S14">
+        <v>0.0355124301948134</v>
+      </c>
+      <c r="T14">
+        <v>0.0355124301948134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>159.9495013333334</v>
+      </c>
+      <c r="H15">
+        <v>479.848504</v>
+      </c>
+      <c r="I15">
+        <v>0.2017955106015594</v>
+      </c>
+      <c r="J15">
+        <v>0.2017955106015595</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.565072666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.695218000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.7017943128153351</v>
+      </c>
+      <c r="P15">
+        <v>0.7017943128153351</v>
+      </c>
+      <c r="Q15">
+        <v>250.3325925837636</v>
+      </c>
+      <c r="R15">
+        <v>2252.993333253873</v>
+      </c>
+      <c r="S15">
+        <v>0.1416189416918411</v>
+      </c>
+      <c r="T15">
+        <v>0.1416189416918411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>159.9495013333334</v>
+      </c>
+      <c r="H16">
+        <v>479.848504</v>
+      </c>
+      <c r="I16">
+        <v>0.2017955106015594</v>
+      </c>
+      <c r="J16">
+        <v>0.2017955106015595</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2725706666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.817712</v>
+      </c>
+      <c r="O16">
+        <v>0.1222234262862456</v>
+      </c>
+      <c r="P16">
+        <v>0.1222234262862455</v>
+      </c>
+      <c r="Q16">
+        <v>43.59754221142757</v>
+      </c>
+      <c r="R16">
+        <v>392.3778799028481</v>
+      </c>
+      <c r="S16">
+        <v>0.02466413871490498</v>
+      </c>
+      <c r="T16">
+        <v>0.02466413871490498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>42.54239833333333</v>
+      </c>
+      <c r="H17">
+        <v>127.627195</v>
+      </c>
+      <c r="I17">
+        <v>0.05367234609877993</v>
+      </c>
+      <c r="J17">
+        <v>0.05367234609877995</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3924583333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.177375</v>
+      </c>
+      <c r="O17">
+        <v>0.1759822608984195</v>
+      </c>
+      <c r="P17">
+        <v>0.1759822608984194</v>
+      </c>
+      <c r="Q17">
+        <v>16.69611874590278</v>
+      </c>
+      <c r="R17">
+        <v>150.265068713125</v>
+      </c>
+      <c r="S17">
+        <v>0.009445380814185755</v>
+      </c>
+      <c r="T17">
+        <v>0.009445380814185757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>41.3442433879317</v>
-      </c>
-      <c r="H13">
-        <v>41.3442433879317</v>
-      </c>
-      <c r="I13">
-        <v>0.05392873711084584</v>
-      </c>
-      <c r="J13">
-        <v>0.05392873711084584</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.42016019938661</v>
-      </c>
-      <c r="N13">
-        <v>1.42016019938661</v>
-      </c>
-      <c r="O13">
-        <v>0.7911197445824482</v>
-      </c>
-      <c r="P13">
-        <v>0.7911197445824482</v>
-      </c>
-      <c r="Q13">
-        <v>58.71544893329361</v>
-      </c>
-      <c r="R13">
-        <v>58.71544893329361</v>
-      </c>
-      <c r="S13">
-        <v>0.04266408872878635</v>
-      </c>
-      <c r="T13">
-        <v>0.04266408872878635</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>42.54239833333333</v>
+      </c>
+      <c r="H18">
+        <v>127.627195</v>
+      </c>
+      <c r="I18">
+        <v>0.05367234609877993</v>
+      </c>
+      <c r="J18">
+        <v>0.05367234609877995</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.565072666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.695218000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.7017943128153351</v>
+      </c>
+      <c r="P18">
+        <v>0.7017943128153351</v>
+      </c>
+      <c r="Q18">
+        <v>66.58194480594555</v>
+      </c>
+      <c r="R18">
+        <v>599.2375032535101</v>
+      </c>
+      <c r="S18">
+        <v>0.03766694724758009</v>
+      </c>
+      <c r="T18">
+        <v>0.0376669472475801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>42.54239833333333</v>
+      </c>
+      <c r="H19">
+        <v>127.627195</v>
+      </c>
+      <c r="I19">
+        <v>0.05367234609877993</v>
+      </c>
+      <c r="J19">
+        <v>0.05367234609877995</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2725706666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.817712</v>
+      </c>
+      <c r="O19">
+        <v>0.1222234262862456</v>
+      </c>
+      <c r="P19">
+        <v>0.1222234262862455</v>
+      </c>
+      <c r="Q19">
+        <v>11.59580987531556</v>
+      </c>
+      <c r="R19">
+        <v>104.36228887784</v>
+      </c>
+      <c r="S19">
+        <v>0.006560018037014088</v>
+      </c>
+      <c r="T19">
+        <v>0.006560018037014089</v>
       </c>
     </row>
   </sheetData>
